--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1009,7 +1009,7 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:reference}
+    <t xml:space="preserve">profile:reference.resolve()}
 </t>
   </si>
   <si>
@@ -1550,7 +1550,7 @@
     <t>CarePlan.activity:referenciaReceta.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MedicationRequestLE)
 </t>
   </si>
   <si>
@@ -2082,7 +2082,7 @@
     <col min="25" max="25" width="152.92578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.94921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="24.44921875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -295,10 +295,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2343,13 +2343,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>80</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -530,7 +530,7 @@
     <t>CarePlan.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|Questionnaire|4.0.1|Measure|4.0.1|ActivityDefinition|4.0.1|OperationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1)
 </t>
   </si>
   <si>
@@ -707,7 +707,7 @@
     <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -862,7 +862,7 @@
     <t>CarePlan.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
     <t>CarePlan.careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -918,7 +918,7 @@
     <t>CarePlan.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -949,7 +949,7 @@
     <t>CarePlan.supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>CarePlan.goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Goal)
+    <t xml:space="preserve">Reference(Goal|4.0.1)
 </t>
   </si>
   <si>
@@ -1083,7 +1083,7 @@
     <t>Identifies the results of the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.activity.outcomeReference</t>
@@ -1135,7 +1135,7 @@
     <t>CarePlan.activity.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
+    <t xml:space="preserve">Reference(Appointment|4.0.1|CommunicationRequest|4.0.1|DeviceRequest|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|Task|4.0.1|ServiceRequest|4.0.1|VisionPrescription|4.0.1|RequestGroup|4.0.1)
 </t>
   </si>
   <si>
@@ -1207,7 +1207,7 @@
     <t>CarePlan.activity.detail.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Questionnaire|Measure|OperationDefinition)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Questionnaire|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1268,7 +1268,7 @@
     <t>Identifies why a care plan activity is needed.  Can include any health condition codes as well as such concepts as "general wellness", prophylaxis, surgical preparation, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1277,7 +1277,7 @@
     <t>CarePlan.activity.detail.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1398,7 +1398,7 @@
     <t>CarePlan.activity.detail.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1423,7 +1423,7 @@
     <t>CarePlan.activity.detail.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|CareTeam|4.0.1|HealthcareService|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1449,7 +1449,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication|Substance)</t>
+Reference(Medication|4.0.1|Substance|4.0.1)</t>
   </si>
   <si>
     <t>What is to be administered/supplied</t>
@@ -1461,7 +1461,7 @@
     <t>A product supplied or administered as part of a care plan activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -1477,7 +1477,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -2055,17 +2055,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.4765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="32.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="138.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="173.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2074,26 +2074,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="152.92578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.94921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="24.44921875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.75390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.76953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.609375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="52.40625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="168.921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="143.734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.83203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
